--- a/table_1_2025_12_22.xlsx
+++ b/table_1_2025_12_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmliu\OneDrive\文档\GitHub\Liu2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38A9A0A-7C20-4977-9BBC-38A7985A5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E119623-391C-4C68-9D8A-CA421ADC9C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18912" windowHeight="11952" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="259">
   <si>
     <t>Enrichment in genomic regions</t>
   </si>
@@ -856,6 +856,40 @@
   </si>
   <si>
     <t>to check</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsDel15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ID15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ID16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsDel16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>From WES</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCGA-EW-A2FV-01A-11D-A17D-09</t>
+  </si>
+  <si>
+    <t>TCGA-13-0889-01A-01W-0420-08</t>
+  </si>
+  <si>
+    <t>Found in one TCGA WES data of Ovary cancer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Found in two TCGA WES data of Breast cancer</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,9 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,15 +1056,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,40 +1088,43 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,31 +1388,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="34.44921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.09765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.09765625" style="4" customWidth="1"/>
     <col min="14" max="14" width="28.94921875" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="12.85" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -1392,1751 +1421,1873 @@
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:15" ht="131.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16" ht="131.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="9" t="s">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="24">
         <v>0.96699999999999997</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A4" s="9" t="s">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="10" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A5" s="9" t="s">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="4" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="10" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A6" s="9" t="s">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="4" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="10" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A7" s="9" t="s">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="4" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="10"/>
-      <c r="O7" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="8"/>
+      <c r="O7" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="24">
         <v>0.98099999999999998</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A9" s="9" t="s">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="10" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N9" t="s">
         <v>49</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A10" s="9" t="s">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="10" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="29">
         <v>0.98099999999999998</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="10" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="9" t="s">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>0.96699999999999997</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A14" s="9" t="s">
+      <c r="O13" s="16"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="10" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="9" t="s">
+      <c r="O14" s="16"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="24">
         <v>0.92200000000000004</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A16" s="9" t="s">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="10" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A17" s="9" t="s">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>0.97399999999999998</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="2">
         <v>0.95399999999999996</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A18" s="9" t="s">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>0.95199999999999996</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="2">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N18" t="s">
         <v>89</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A19" s="9" t="s">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.9" x14ac:dyDescent="0.5">
-      <c r="A20" s="9" t="s">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.9" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>0.92</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A21" s="9" t="s">
+      <c r="O20" s="16"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="2">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A22" s="9" t="s">
+      <c r="M21" s="8"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="2">
         <v>0.96499999999999997</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="4" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A23" s="9" t="s">
+      <c r="O22" s="16"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="2">
         <v>0.94499999999999995</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A24" s="9" t="s">
+      <c r="M23" s="8"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>0.99</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="2">
         <v>0.96599999999999997</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A25" s="12" t="s">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>0.98</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="2">
         <v>0.95799999999999996</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A26" s="9" t="s">
+      <c r="O25" s="16"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F28" s="2">
         <v>0.90700000000000003</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="4" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I28" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J28" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K28" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="L28" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="O26" t="s">
+      <c r="M28" s="8"/>
+      <c r="O28" s="16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A27" s="9" t="s">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D29" s="8">
         <v>0.99</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F29" s="2">
         <v>0.96299999999999997</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="4" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K29" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O29" s="16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="9" t="s">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="24">
         <v>0.92900000000000005</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="4" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J30" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K30" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M30" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A29" s="9" t="s">
+      <c r="O30" s="16"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="4" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="10" t="s">
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A30" s="9" t="s">
+      <c r="O31" s="16"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="4" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="10" t="s">
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A31" s="9" t="s">
+      <c r="O32" s="16"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F33" s="2">
         <v>0.98899999999999999</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="4" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J33" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K33" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L31" s="27" t="s">
+      <c r="L33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M31" s="10"/>
-      <c r="O31" t="s">
+      <c r="M33" s="8"/>
+      <c r="O33" s="16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="9" t="s">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="2" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="2" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I34" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="J34" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="29" t="s">
+      <c r="K34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O34" s="16" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A33" s="9" t="s">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A35" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D35" s="8">
         <v>0.96499999999999997</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="4" t="s">
+      <c r="E35" s="24"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="10" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A34" s="9" t="s">
+      <c r="O35" s="16"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B36" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K36" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L36" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M36" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A35" s="12" t="s">
+      <c r="O36" s="16"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I37" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J37" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K37" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L37" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A36" s="12" t="s">
+      <c r="M37" s="8"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="9" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="27" t="s">
+      <c r="I38" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="28" t="s">
+      <c r="J38" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="28" t="s">
+      <c r="K38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="L38" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M38" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A37" s="9" t="s">
+      <c r="O38" s="16"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B39" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I39" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J39" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K37" s="28" t="s">
+      <c r="K39" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="L39" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M39" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A38" s="9" t="s">
+      <c r="O39" s="16"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A40" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B40" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="9" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I40" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="J40" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K40" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L40" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O40" s="16" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A39" s="9" t="s">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A41" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B41" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C41" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D41" s="8">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E41" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I41" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="28" t="s">
+      <c r="J41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="28" t="s">
+      <c r="K41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="27" t="s">
+      <c r="L41" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M41" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A40" s="12" t="s">
+      <c r="O41" s="16"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A42" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B42" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I42" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J42" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K42" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L40" s="27" t="s">
+      <c r="L42" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M42" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A41" s="15" t="s">
+      <c r="O42" s="16"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A43" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B43" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J43" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K41" s="28" t="s">
+      <c r="K43" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="L43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A42" s="9" t="s">
+      <c r="M43" s="8"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I44" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J42" s="28" t="s">
+      <c r="J44" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K44" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="L44" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N44" t="s">
         <v>49</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O44" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="9" t="s">
+    <row r="45" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B45" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="2" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="2" t="s">
+      <c r="F45" s="2"/>
+      <c r="G45" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H45" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I45" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J43" s="29" t="s">
+      <c r="J45" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K45" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L45" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" t="s">
+      <c r="M45" s="8"/>
+      <c r="N45" t="s">
         <v>206</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O45" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A44" s="9" t="s">
+    <row r="46" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A46" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B46" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="9" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="10" t="s">
+      <c r="I46" s="23"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N46" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A45" s="9" t="s">
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A47" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B47" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D47" s="8">
         <v>0.97</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E47" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H47" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I47" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="28" t="s">
+      <c r="J47" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="28" t="s">
+      <c r="K47" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L47" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="10"/>
-      <c r="O45" t="s">
+      <c r="M47" s="8"/>
+      <c r="O47" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A46" s="9" t="s">
+    <row r="48" spans="1:16" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A48" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B48" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="9" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H48" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I46" s="27" t="s">
+      <c r="I48" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="J46" s="27" t="s">
+      <c r="J48" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K48" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="L48" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="M46" s="10"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A47" s="15" t="s">
+      <c r="M48" s="8"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A49" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B49" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="9" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H49" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I47" s="27" t="s">
+      <c r="I49" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J49" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="27" t="s">
+      <c r="K49" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L47" s="27" t="s">
+      <c r="L49" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M49" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N49" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A48" s="9" t="s">
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A50" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B50" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D50" s="8">
         <v>0.93</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E50" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H50" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I48" s="28" t="s">
+      <c r="I50" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J50" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K48" s="27" t="s">
+      <c r="K50" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L48" s="27" t="s">
+      <c r="L50" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M48" s="10" t="s">
+      <c r="M50" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N50" t="s">
         <v>232</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O50" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C49" s="11"/>
-    </row>
-    <row r="51" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C51" s="9"/>
+    </row>
+    <row r="53" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="18"/>
-    </row>
-    <row r="52" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A52" s="19" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A54" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-    </row>
-    <row r="53" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A53" s="19" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A55" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-    </row>
-    <row r="54" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A54" s="20" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+    </row>
+    <row r="56" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A56" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A55" s="20" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="1:15" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A57" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-    </row>
-    <row r="56" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="16" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-    </row>
-    <row r="58" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="33" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+    </row>
+    <row r="60" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H58" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
@@ -3149,19 +3300,30 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3180,12 +3342,12 @@
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B2" t="s">
@@ -3193,33 +3355,33 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A7" s="9"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A8" s="9"/>
+      <c r="A8" s="2"/>
       <c r="B8">
         <v>5</v>
       </c>
@@ -3228,70 +3390,70 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
       <c r="B14" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A15" s="10"/>
+      <c r="A15" s="8"/>
       <c r="B15">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
       <c r="B19">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A21" s="10"/>
+      <c r="A21" s="8"/>
       <c r="B21" t="s">
         <v>245</v>
       </c>
@@ -3300,7 +3462,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A22" s="10"/>
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
         <v>247</v>
       </c>
@@ -3309,23 +3471,23 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A23" s="10"/>
+      <c r="A23" s="8"/>
       <c r="B23">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A26" s="10"/>
+      <c r="A26" s="8"/>
       <c r="B26">
         <v>20</v>
       </c>
@@ -3334,42 +3496,42 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A27" s="10"/>
+      <c r="A27" s="8"/>
       <c r="B27">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A28" s="10"/>
+      <c r="A28" s="8"/>
       <c r="B28">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A29" s="10"/>
+      <c r="A29" s="8"/>
       <c r="B29">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A30" s="10"/>
+      <c r="A30" s="8"/>
       <c r="B30">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A31" s="10"/>
+      <c r="A31" s="8"/>
       <c r="B31">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="B33">
         <v>27</v>
       </c>
@@ -3378,7 +3540,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A34" s="10"/>
+      <c r="A34" s="8"/>
       <c r="B34">
         <v>28</v>
       </c>
@@ -3387,7 +3549,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -3396,7 +3558,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3432,88 +3594,88 @@
     <row r="50" spans="1:1" ht="14.1" x14ac:dyDescent="0.5"/>
     <row r="51" spans="1:1" ht="14.1" x14ac:dyDescent="0.5"/>
     <row r="52" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A52" s="10"/>
+      <c r="A52" s="8"/>
     </row>
     <row r="53" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A53" s="9"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A54" s="9"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A55" s="9"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A56" s="9"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A57" s="9"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A58" s="9"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A59" s="9"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A60" s="9"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A61" s="9"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A62" s="9"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A63" s="9"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A64" s="9"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A65" s="9"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A66" s="4"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A67" s="9"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A68" s="9"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A69" s="9"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A70" s="9"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A71" s="9"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A72" s="9"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A73" s="9"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A74" s="9"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A75" s="9"/>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A76" s="9"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A77" s="9"/>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A78" s="9"/>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A79" s="9"/>
+      <c r="A79" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
